--- a/4.1_Generating_a_random_signed_graph/performance_check/performance_check_prof_algo.xlsx
+++ b/4.1_Generating_a_random_signed_graph/performance_check/performance_check_prof_algo.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,10 +446,109 @@
         <v>50</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>8.876504629629629e-07</v>
+        <v>8.912037037037037e-07</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>2.905847222222222e-05</v>
+        <v>2.90625e-05</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>1.805555555555556e-06</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>50</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>2.314814814814815e-08</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>5.068287037037037e-05</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>100</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>8.101851851851852e-08</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>0.0002020833333333333</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>2.881944444444444e-06</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>20</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>9.74537037037037e-06</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>5.578703703703703e-06</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>20</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>6.562499999999999e-06</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>5</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>1.365740740740741e-06</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>9.027777777777777e-10</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>2.091493055555555e-06</v>
       </c>
     </row>
   </sheetData>

--- a/4.1_Generating_a_random_signed_graph/performance_check/performance_check_prof_algo.xlsx
+++ b/4.1_Generating_a_random_signed_graph/performance_check/performance_check_prof_algo.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -545,10 +545,32 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="n">
-        <v>9.027777777777777e-10</v>
+        <v>0</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>2.091493055555555e-06</v>
+        <v>2.094907407407408e-06</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>2.708333333333333e-06</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>6</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>6.597222222222223e-10</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>1.688923611111111e-06</v>
       </c>
     </row>
   </sheetData>

--- a/4.1_Generating_a_random_signed_graph/performance_check/performance_check_prof_algo.xlsx
+++ b/4.1_Generating_a_random_signed_graph/performance_check/performance_check_prof_algo.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,134 +443,112 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>8.912037037037037e-07</v>
+        <v>9.953703703703704e-07</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>2.90625e-05</v>
+        <v>6.212962962962963e-05</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>0</v>
+        <v>4.027777777777778e-06</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>1.805555555555556e-06</v>
+        <v>0.0002104861111111111</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>50</v>
+        <v>1500</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>2.314814814814815e-08</v>
+        <v>9.143518518518519e-06</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>5.068287037037037e-05</v>
+        <v>0.0004244097222222222</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="B5" s="1" t="n">
-        <v>8.101851851851852e-08</v>
+        <v>1.545138888888889e-05</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>0.0002020833333333333</v>
+        <v>0.0007221412037037037</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>10</v>
+        <v>2500</v>
       </c>
       <c r="B6" s="1" t="n">
-        <v>0</v>
+        <v>2.418981481481481e-05</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>2.881944444444444e-06</v>
+        <v>0.001096863425925926</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>20</v>
+        <v>3000</v>
       </c>
       <c r="B7" s="1" t="n">
-        <v>0</v>
+        <v>3.675925925925926e-05</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>9.74537037037037e-06</v>
+        <v>0.001610451388888889</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>10</v>
+        <v>3500</v>
       </c>
       <c r="B8" s="1" t="n">
-        <v>0</v>
+        <v>5.094907407407407e-05</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>5.578703703703703e-06</v>
+        <v>0.002127627314814815</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>20</v>
+        <v>4000</v>
       </c>
       <c r="B9" s="1" t="n">
-        <v>0</v>
+        <v>7.063657407407408e-05</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>6.562499999999999e-06</v>
+        <v>0.002864351851851852</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>5</v>
+        <v>4500</v>
       </c>
       <c r="B10" s="1" t="n">
-        <v>0</v>
+        <v>8.443287037037037e-05</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>1.365740740740741e-06</v>
+        <v>0.003475625</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>10</v>
+        <v>5000</v>
       </c>
       <c r="B11" s="1" t="n">
-        <v>0</v>
+        <v>0.0001162869212962963</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>2.094907407407408e-06</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>2.708333333333333e-06</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>6</v>
-      </c>
-      <c r="B13" s="1" t="n">
-        <v>6.597222222222223e-10</v>
-      </c>
-      <c r="C13" s="1" t="n">
-        <v>1.688923611111111e-06</v>
+        <v>0.004320504953703704</v>
       </c>
     </row>
   </sheetData>
